--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12517</v>
+        <v>12469</v>
       </c>
       <c r="D2" t="n">
-        <v>17964827</v>
+        <v>17784023</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25332</v>
+        <v>25092</v>
       </c>
       <c r="D4" t="n">
-        <v>34548671</v>
+        <v>33826731</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D5" t="n">
-        <v>557682</v>
+        <v>540682</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>63100</v>
+        <v>62997</v>
       </c>
       <c r="D7" t="n">
-        <v>92932283</v>
+        <v>92590262</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>95106</v>
+        <v>93654</v>
       </c>
       <c r="D8" t="n">
-        <v>155032007</v>
+        <v>146301463</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37858</v>
+        <v>37395</v>
       </c>
       <c r="D9" t="n">
-        <v>65045927</v>
+        <v>62774013</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98939</v>
+        <v>96527</v>
       </c>
       <c r="D10" t="n">
-        <v>208710742</v>
+        <v>191752094</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12603</v>
+        <v>12403</v>
       </c>
       <c r="D11" t="n">
-        <v>18663377</v>
+        <v>18105492</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4643</v>
+        <v>4561</v>
       </c>
       <c r="D12" t="n">
-        <v>7100187</v>
+        <v>6917827</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17347</v>
+        <v>17195</v>
       </c>
       <c r="D13" t="n">
-        <v>26429441</v>
+        <v>25714612</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>58587</v>
+        <v>57904</v>
       </c>
       <c r="D14" t="n">
-        <v>89860986</v>
+        <v>87049487</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>29103</v>
+        <v>28766</v>
       </c>
       <c r="D15" t="n">
-        <v>46156352</v>
+        <v>44750726</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55028</v>
+        <v>54395</v>
       </c>
       <c r="D17" t="n">
-        <v>75327776</v>
+        <v>73386330</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49096</v>
+        <v>49048</v>
       </c>
       <c r="D18" t="n">
-        <v>65524262</v>
+        <v>65447142</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>48086</v>
+        <v>47366</v>
       </c>
       <c r="D19" t="n">
-        <v>72633289</v>
+        <v>69714866</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>63481</v>
+        <v>62424</v>
       </c>
       <c r="D20" t="n">
-        <v>87419144</v>
+        <v>83234121</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4334</v>
+        <v>4313</v>
       </c>
       <c r="D21" t="n">
-        <v>6380778</v>
+        <v>6282007</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6900</v>
+        <v>6833</v>
       </c>
       <c r="D23" t="n">
-        <v>9068955</v>
+        <v>8890377</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D25" t="n">
-        <v>675070</v>
+        <v>673570</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15047</v>
+        <v>15027</v>
       </c>
       <c r="D26" t="n">
-        <v>21675621</v>
+        <v>21636497</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>28492</v>
+        <v>27999</v>
       </c>
       <c r="D27" t="n">
-        <v>45194332</v>
+        <v>42412839</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3908</v>
+        <v>3878</v>
       </c>
       <c r="D28" t="n">
-        <v>6194087</v>
+        <v>6051218</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27944</v>
+        <v>27249</v>
       </c>
       <c r="D29" t="n">
-        <v>54289334</v>
+        <v>49593426</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2265</v>
+        <v>2230</v>
       </c>
       <c r="D30" t="n">
-        <v>3186622</v>
+        <v>3090476</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1043</v>
+        <v>1022</v>
       </c>
       <c r="D31" t="n">
-        <v>1528278</v>
+        <v>1466578</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3655</v>
+        <v>3623</v>
       </c>
       <c r="D32" t="n">
-        <v>5303215</v>
+        <v>5132865</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11163</v>
+        <v>11012</v>
       </c>
       <c r="D33" t="n">
-        <v>17074883</v>
+        <v>16405532</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5726</v>
+        <v>5670</v>
       </c>
       <c r="D34" t="n">
-        <v>8597805</v>
+        <v>8409059</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>15918</v>
+        <v>14784</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8437</v>
+        <v>8304</v>
       </c>
       <c r="D36" t="n">
-        <v>11136422</v>
+        <v>10654576</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10740</v>
+        <v>10721</v>
       </c>
       <c r="D37" t="n">
-        <v>14277626</v>
+        <v>14210907</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11964</v>
+        <v>11790</v>
       </c>
       <c r="D38" t="n">
-        <v>16918780</v>
+        <v>16192847</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19413</v>
+        <v>19057</v>
       </c>
       <c r="D39" t="n">
-        <v>26685620</v>
+        <v>25329339</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3502</v>
+        <v>3484</v>
       </c>
       <c r="D40" t="n">
-        <v>4995775</v>
+        <v>4935304</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9351</v>
+        <v>9245</v>
       </c>
       <c r="D42" t="n">
-        <v>12030788</v>
+        <v>11702822</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D44" t="n">
-        <v>401190</v>
+        <v>400252</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16496</v>
+        <v>16460</v>
       </c>
       <c r="D45" t="n">
-        <v>23807185</v>
+        <v>23719970</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30599</v>
+        <v>30013</v>
       </c>
       <c r="D46" t="n">
-        <v>49922155</v>
+        <v>46384521</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5480</v>
+        <v>5406</v>
       </c>
       <c r="D47" t="n">
-        <v>8901518</v>
+        <v>8572583</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>36120</v>
+        <v>35093</v>
       </c>
       <c r="D48" t="n">
-        <v>70918669</v>
+        <v>63627211</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3858</v>
+        <v>3786</v>
       </c>
       <c r="D49" t="n">
-        <v>5425847</v>
+        <v>5201540</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="D50" t="n">
-        <v>2072016</v>
+        <v>2020584</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5303</v>
+        <v>5260</v>
       </c>
       <c r="D51" t="n">
-        <v>7577447</v>
+        <v>7391691</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16672</v>
+        <v>16433</v>
       </c>
       <c r="D52" t="n">
-        <v>25234808</v>
+        <v>24223364</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>7065</v>
+        <v>6989</v>
       </c>
       <c r="D53" t="n">
-        <v>10585065</v>
+        <v>10239842</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9364</v>
+        <v>9205</v>
       </c>
       <c r="D55" t="n">
-        <v>12765977</v>
+        <v>12184010</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17726</v>
+        <v>17711</v>
       </c>
       <c r="D56" t="n">
-        <v>23797559</v>
+        <v>23759267</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14495</v>
+        <v>14318</v>
       </c>
       <c r="D57" t="n">
-        <v>20487210</v>
+        <v>19660574</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21615</v>
+        <v>21203</v>
       </c>
       <c r="D58" t="n">
-        <v>30612120</v>
+        <v>28746718</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3113</v>
+        <v>3091</v>
       </c>
       <c r="D59" t="n">
-        <v>4581772</v>
+        <v>4498014</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6001</v>
+        <v>5944</v>
       </c>
       <c r="D60" t="n">
-        <v>8069817</v>
+        <v>7929228</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D62" t="n">
-        <v>363807</v>
+        <v>362742</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14833</v>
+        <v>14801</v>
       </c>
       <c r="D63" t="n">
-        <v>21593394</v>
+        <v>21488992</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23237</v>
+        <v>22879</v>
       </c>
       <c r="D64" t="n">
-        <v>36972345</v>
+        <v>34781489</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6272</v>
+        <v>6206</v>
       </c>
       <c r="D65" t="n">
-        <v>10938989</v>
+        <v>10524560</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22718</v>
+        <v>22108</v>
       </c>
       <c r="D66" t="n">
-        <v>45400875</v>
+        <v>41171059</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2550</v>
+        <v>2501</v>
       </c>
       <c r="D67" t="n">
-        <v>3764304</v>
+        <v>3626270</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="D68" t="n">
-        <v>1427251</v>
+        <v>1375461</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3859</v>
+        <v>3824</v>
       </c>
       <c r="D69" t="n">
-        <v>5854283</v>
+        <v>5669409</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10701</v>
+        <v>10521</v>
       </c>
       <c r="D70" t="n">
-        <v>16607994</v>
+        <v>15835415</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5826</v>
+        <v>5760</v>
       </c>
       <c r="D71" t="n">
-        <v>8874563</v>
+        <v>8573572</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6734</v>
+        <v>6620</v>
       </c>
       <c r="D73" t="n">
-        <v>9468113</v>
+        <v>9017325</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9164</v>
+        <v>9150</v>
       </c>
       <c r="D74" t="n">
-        <v>12078551</v>
+        <v>12039159</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10736</v>
+        <v>10557</v>
       </c>
       <c r="D75" t="n">
-        <v>16280198</v>
+        <v>15524535</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17346</v>
+        <v>16977</v>
       </c>
       <c r="D76" t="n">
-        <v>24793316</v>
+        <v>23191104</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2947</v>
+        <v>2938</v>
       </c>
       <c r="D77" t="n">
-        <v>4270134</v>
+        <v>4239456</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2353</v>
+        <v>2338</v>
       </c>
       <c r="D78" t="n">
-        <v>3312849</v>
+        <v>3244924</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5081</v>
+        <v>5068</v>
       </c>
       <c r="D80" t="n">
-        <v>7356194</v>
+        <v>7317424</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6499</v>
+        <v>6403</v>
       </c>
       <c r="D81" t="n">
-        <v>11009876</v>
+        <v>10339736</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1148</v>
+        <v>1139</v>
       </c>
       <c r="D82" t="n">
-        <v>1784765</v>
+        <v>1755246</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>9079</v>
+        <v>8866</v>
       </c>
       <c r="D83" t="n">
-        <v>18686557</v>
+        <v>17221315</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="D84" t="n">
-        <v>768291</v>
+        <v>742151</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3574,10 +3574,10 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D85" t="n">
-        <v>227099</v>
+        <v>214109</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1792</v>
+        <v>1778</v>
       </c>
       <c r="D86" t="n">
-        <v>2747808</v>
+        <v>2678772</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4566</v>
+        <v>4506</v>
       </c>
       <c r="D87" t="n">
-        <v>8060835</v>
+        <v>7678119</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2631</v>
+        <v>2606</v>
       </c>
       <c r="D88" t="n">
-        <v>3877029</v>
+        <v>3786518</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1468</v>
+        <v>1443</v>
       </c>
       <c r="D89" t="n">
-        <v>1984923</v>
+        <v>1921901</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1879</v>
+        <v>1878</v>
       </c>
       <c r="D90" t="n">
-        <v>2535755</v>
+        <v>2534255</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2022</v>
+        <v>1978</v>
       </c>
       <c r="D91" t="n">
-        <v>3343767</v>
+        <v>3129162</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3476</v>
+        <v>3418</v>
       </c>
       <c r="D92" t="n">
-        <v>4829743</v>
+        <v>4611033</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7174</v>
+        <v>7064</v>
       </c>
       <c r="D93" t="n">
-        <v>16265500</v>
+        <v>15545373</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12107</v>
+        <v>12007</v>
       </c>
       <c r="D95" t="n">
-        <v>16739130</v>
+        <v>16323215</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="D97" t="n">
-        <v>1752515</v>
+        <v>1740596</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31268</v>
+        <v>31225</v>
       </c>
       <c r="D98" t="n">
-        <v>45729731</v>
+        <v>45549102</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>52359</v>
+        <v>51603</v>
       </c>
       <c r="D99" t="n">
-        <v>82965312</v>
+        <v>78380925</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>12020</v>
+        <v>11896</v>
       </c>
       <c r="D100" t="n">
-        <v>19207184</v>
+        <v>18687431</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>46545</v>
+        <v>45332</v>
       </c>
       <c r="D101" t="n">
-        <v>93825494</v>
+        <v>85099324</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4973</v>
+        <v>4903</v>
       </c>
       <c r="D102" t="n">
-        <v>7206378</v>
+        <v>7008415</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2188</v>
+        <v>2152</v>
       </c>
       <c r="D103" t="n">
-        <v>3216716</v>
+        <v>3150426</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6701</v>
+        <v>6655</v>
       </c>
       <c r="D104" t="n">
-        <v>9824312</v>
+        <v>9570690</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24378</v>
+        <v>24097</v>
       </c>
       <c r="D105" t="n">
-        <v>35899657</v>
+        <v>34729091</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11256</v>
+        <v>11117</v>
       </c>
       <c r="D106" t="n">
-        <v>17256091</v>
+        <v>16702661</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>13894</v>
+        <v>13684</v>
       </c>
       <c r="D108" t="n">
-        <v>18947760</v>
+        <v>18147059</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22144</v>
+        <v>22120</v>
       </c>
       <c r="D109" t="n">
-        <v>30111198</v>
+        <v>30057540</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>20284</v>
+        <v>19983</v>
       </c>
       <c r="D110" t="n">
-        <v>28713487</v>
+        <v>27440438</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>39175</v>
+        <v>38449</v>
       </c>
       <c r="D111" t="n">
-        <v>53623201</v>
+        <v>50705112</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8750</v>
+        <v>8711</v>
       </c>
       <c r="D113" t="n">
-        <v>12635310</v>
+        <v>12487077</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3681</v>
+        <v>3670</v>
       </c>
       <c r="D115" t="n">
-        <v>5442331</v>
+        <v>5395197</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5639</v>
+        <v>5634</v>
       </c>
       <c r="D118" t="n">
-        <v>8314132</v>
+        <v>8287332</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9766</v>
+        <v>9728</v>
       </c>
       <c r="D119" t="n">
-        <v>14312658</v>
+        <v>14168915</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3066</v>
+        <v>3042</v>
       </c>
       <c r="D120" t="n">
-        <v>4603167</v>
+        <v>4530437</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10224</v>
+        <v>10135</v>
       </c>
       <c r="D121" t="n">
-        <v>16533699</v>
+        <v>16129351</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D122" t="n">
-        <v>1463951</v>
+        <v>1452914</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5010,10 +5010,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D123" t="n">
-        <v>456760</v>
+        <v>455260</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="D124" t="n">
-        <v>1963266</v>
+        <v>1948759</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3684</v>
+        <v>3671</v>
       </c>
       <c r="D125" t="n">
-        <v>5478815</v>
+        <v>5426340</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5446</v>
+        <v>5418</v>
       </c>
       <c r="D126" t="n">
-        <v>8424900</v>
+        <v>8271944</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2220</v>
+        <v>2208</v>
       </c>
       <c r="D127" t="n">
-        <v>2904867</v>
+        <v>2872169</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="D128" t="n">
-        <v>3403002</v>
+        <v>3393002</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2298</v>
+        <v>2269</v>
       </c>
       <c r="D129" t="n">
-        <v>3798814</v>
+        <v>3638684</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="D130" t="n">
-        <v>4596385</v>
+        <v>4581785</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4025</v>
+        <v>4018</v>
       </c>
       <c r="D132" t="n">
-        <v>7098666</v>
+        <v>7059767</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D133" t="n">
-        <v>361206</v>
+        <v>351206</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D134" t="n">
-        <v>3808339</v>
+        <v>3788547</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5118</v>
+        <v>5107</v>
       </c>
       <c r="D137" t="n">
-        <v>11630643</v>
+        <v>11527643</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4354</v>
+        <v>4345</v>
       </c>
       <c r="D138" t="n">
-        <v>9109451</v>
+        <v>9027638</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="D139" t="n">
-        <v>3132233</v>
+        <v>3126683</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3194</v>
+        <v>3179</v>
       </c>
       <c r="D140" t="n">
-        <v>6862498</v>
+        <v>6759398</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D141" t="n">
-        <v>857760</v>
+        <v>843118</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D142" t="n">
-        <v>457938</v>
+        <v>454338</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="D144" t="n">
-        <v>3658804</v>
+        <v>3621304</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1970</v>
+        <v>1961</v>
       </c>
       <c r="D145" t="n">
-        <v>4262369</v>
+        <v>4198650</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D146" t="n">
-        <v>1332533</v>
+        <v>1306694</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D147" t="n">
-        <v>1365155</v>
+        <v>1343735</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="D148" t="n">
-        <v>1556371</v>
+        <v>1527205</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="D149" t="n">
-        <v>2555501</v>
+        <v>2526661</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3239</v>
+        <v>3220</v>
       </c>
       <c r="D150" t="n">
-        <v>4955614</v>
+        <v>4868629</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9433</v>
+        <v>9347</v>
       </c>
       <c r="D152" t="n">
-        <v>12567149</v>
+        <v>12306386</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6142,10 +6142,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D153" t="n">
-        <v>37534</v>
+        <v>36034</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26062</v>
+        <v>26005</v>
       </c>
       <c r="D155" t="n">
-        <v>37856458</v>
+        <v>37677380</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>50873</v>
+        <v>50087</v>
       </c>
       <c r="D156" t="n">
-        <v>78591116</v>
+        <v>73908734</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>20110</v>
+        <v>19866</v>
       </c>
       <c r="D157" t="n">
-        <v>32825124</v>
+        <v>31806786</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>45716</v>
+        <v>44549</v>
       </c>
       <c r="D158" t="n">
-        <v>94974426</v>
+        <v>86549822</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>5025</v>
+        <v>4945</v>
       </c>
       <c r="D159" t="n">
-        <v>7325252</v>
+        <v>7111391</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2270</v>
+        <v>2227</v>
       </c>
       <c r="D160" t="n">
-        <v>3468693</v>
+        <v>3337188</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6087</v>
+        <v>6011</v>
       </c>
       <c r="D161" t="n">
-        <v>9523142</v>
+        <v>9110722</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>24186</v>
+        <v>23869</v>
       </c>
       <c r="D162" t="n">
-        <v>37248218</v>
+        <v>36005125</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11170</v>
+        <v>11020</v>
       </c>
       <c r="D163" t="n">
-        <v>17265968</v>
+        <v>16713517</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>12437</v>
+        <v>12249</v>
       </c>
       <c r="D165" t="n">
-        <v>17268573</v>
+        <v>16509702</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22682</v>
+        <v>22662</v>
       </c>
       <c r="D166" t="n">
-        <v>30733140</v>
+        <v>30679872</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>20073</v>
+        <v>19738</v>
       </c>
       <c r="D167" t="n">
-        <v>30359123</v>
+        <v>29011426</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>37550</v>
+        <v>36775</v>
       </c>
       <c r="D168" t="n">
-        <v>51506404</v>
+        <v>48433898</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="D169" t="n">
-        <v>1544705</v>
+        <v>1504190</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>26939</v>
+        <v>26699</v>
       </c>
       <c r="D171" t="n">
-        <v>40316498</v>
+        <v>39315439</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D172" t="n">
-        <v>1189691</v>
+        <v>1153540</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D173" t="n">
-        <v>1815009</v>
+        <v>1807058</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>70910</v>
+        <v>70755</v>
       </c>
       <c r="D174" t="n">
-        <v>108067476</v>
+        <v>107242416</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>147933</v>
+        <v>146012</v>
       </c>
       <c r="D175" t="n">
-        <v>255535907</v>
+        <v>242781005</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>310389</v>
+        <v>306178</v>
       </c>
       <c r="D176" t="n">
-        <v>560453622</v>
+        <v>539050902</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>133532</v>
+        <v>131019</v>
       </c>
       <c r="D177" t="n">
-        <v>306549967</v>
+        <v>286304148</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>55537</v>
+        <v>54753</v>
       </c>
       <c r="D178" t="n">
-        <v>92507429</v>
+        <v>89314056</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10697</v>
+        <v>10499</v>
       </c>
       <c r="D179" t="n">
-        <v>17714509</v>
+        <v>17047413</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>26115</v>
+        <v>25785</v>
       </c>
       <c r="D180" t="n">
-        <v>44383220</v>
+        <v>42403397</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>179882</v>
+        <v>178051</v>
       </c>
       <c r="D181" t="n">
-        <v>280792717</v>
+        <v>273732939</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>59617</v>
+        <v>58795</v>
       </c>
       <c r="D182" t="n">
-        <v>106988942</v>
+        <v>102710231</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>52864</v>
+        <v>52245</v>
       </c>
       <c r="D184" t="n">
-        <v>72179726</v>
+        <v>70059299</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>60725</v>
+        <v>60678</v>
       </c>
       <c r="D185" t="n">
-        <v>82090792</v>
+        <v>81950341</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>111495</v>
+        <v>110000</v>
       </c>
       <c r="D186" t="n">
-        <v>173929183</v>
+        <v>167961131</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>78598</v>
+        <v>77361</v>
       </c>
       <c r="D187" t="n">
-        <v>123398193</v>
+        <v>117031916</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5442</v>
+        <v>5437</v>
       </c>
       <c r="D188" t="n">
-        <v>7317976</v>
+        <v>7308038</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4524</v>
+        <v>4512</v>
       </c>
       <c r="D190" t="n">
-        <v>6150863</v>
+        <v>6125418</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14849</v>
+        <v>14816</v>
       </c>
       <c r="D194" t="n">
-        <v>20890919</v>
+        <v>20771766</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2253</v>
+        <v>2250</v>
       </c>
       <c r="D195" t="n">
-        <v>3230347</v>
+        <v>3220457</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10478</v>
+        <v>10418</v>
       </c>
       <c r="D196" t="n">
-        <v>15853113</v>
+        <v>15636120</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1219</v>
+        <v>1212</v>
       </c>
       <c r="D197" t="n">
-        <v>1731736</v>
+        <v>1724616</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D198" t="n">
-        <v>628068</v>
+        <v>626568</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1835</v>
+        <v>1829</v>
       </c>
       <c r="D199" t="n">
-        <v>2623571</v>
+        <v>2599804</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4911</v>
+        <v>4895</v>
       </c>
       <c r="D200" t="n">
-        <v>7077102</v>
+        <v>7038345</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3284</v>
+        <v>3267</v>
       </c>
       <c r="D201" t="n">
-        <v>5149128</v>
+        <v>5063808</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4147</v>
+        <v>4136</v>
       </c>
       <c r="D202" t="n">
-        <v>5397442</v>
+        <v>5381260</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5295</v>
+        <v>5292</v>
       </c>
       <c r="D203" t="n">
-        <v>7493344</v>
+        <v>7480995</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3919</v>
+        <v>3893</v>
       </c>
       <c r="D204" t="n">
-        <v>5790842</v>
+        <v>5663812</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5441</v>
+        <v>5438</v>
       </c>
       <c r="D205" t="n">
-        <v>6967227</v>
+        <v>6961185</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2263</v>
+        <v>2245</v>
       </c>
       <c r="D206" t="n">
-        <v>3096196</v>
+        <v>3024593</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2419</v>
+        <v>2402</v>
       </c>
       <c r="D207" t="n">
-        <v>3515224</v>
+        <v>3440669</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="D210" t="n">
-        <v>5028356</v>
+        <v>5012742</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6602</v>
+        <v>6536</v>
       </c>
       <c r="D211" t="n">
-        <v>10756785</v>
+        <v>10333627</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2627</v>
+        <v>2603</v>
       </c>
       <c r="D212" t="n">
-        <v>4130649</v>
+        <v>4013945</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5170</v>
+        <v>5099</v>
       </c>
       <c r="D213" t="n">
-        <v>9036283</v>
+        <v>8635708</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D214" t="n">
-        <v>1096584</v>
+        <v>1084427</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="D216" t="n">
-        <v>1335988</v>
+        <v>1302621</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3046</v>
+        <v>3013</v>
       </c>
       <c r="D217" t="n">
-        <v>4666610</v>
+        <v>4544217</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3449</v>
+        <v>3416</v>
       </c>
       <c r="D218" t="n">
-        <v>5497898</v>
+        <v>5364781</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1668</v>
+        <v>1654</v>
       </c>
       <c r="D219" t="n">
-        <v>2304747</v>
+        <v>2244710</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="D220" t="n">
-        <v>2836180</v>
+        <v>2831413</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1686</v>
+        <v>1663</v>
       </c>
       <c r="D221" t="n">
-        <v>2758263</v>
+        <v>2660342</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3420</v>
+        <v>3387</v>
       </c>
       <c r="D222" t="n">
-        <v>4946405</v>
+        <v>4804224</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5995</v>
+        <v>5988</v>
       </c>
       <c r="D224" t="n">
-        <v>13098085</v>
+        <v>13063556</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D225" t="n">
-        <v>2412857</v>
+        <v>2381749</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3620</v>
+        <v>3607</v>
       </c>
       <c r="D227" t="n">
-        <v>8454168</v>
+        <v>8335168</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>16392</v>
+        <v>16333</v>
       </c>
       <c r="D228" t="n">
-        <v>36522069</v>
+        <v>36040929</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3229</v>
+        <v>3212</v>
       </c>
       <c r="D229" t="n">
-        <v>7807980</v>
+        <v>7680965</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1827</v>
+        <v>1818</v>
       </c>
       <c r="D230" t="n">
-        <v>4131100</v>
+        <v>4063290</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D234" t="n">
-        <v>1182007</v>
+        <v>1172007</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D235" t="n">
-        <v>1507020</v>
+        <v>1485520</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D236" t="n">
-        <v>982789</v>
+        <v>974030</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9326,10 +9326,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D237" t="n">
-        <v>575726</v>
+        <v>565331</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D238" t="n">
-        <v>729383</v>
+        <v>704383</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D239" t="n">
-        <v>1200988</v>
+        <v>1185988</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3573</v>
+        <v>3549</v>
       </c>
       <c r="D240" t="n">
-        <v>5239130</v>
+        <v>5126789</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6533</v>
+        <v>6458</v>
       </c>
       <c r="D242" t="n">
-        <v>8611808</v>
+        <v>8446432</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9592,10 +9592,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D244" t="n">
-        <v>393809</v>
+        <v>391809</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>16002</v>
+        <v>15974</v>
       </c>
       <c r="D245" t="n">
-        <v>23364722</v>
+        <v>23249873</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>31989</v>
+        <v>31393</v>
       </c>
       <c r="D246" t="n">
-        <v>51011045</v>
+        <v>47408925</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6657</v>
+        <v>6591</v>
       </c>
       <c r="D247" t="n">
-        <v>10922524</v>
+        <v>10631068</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>30642</v>
+        <v>29724</v>
       </c>
       <c r="D248" t="n">
-        <v>63102774</v>
+        <v>56474280</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2769</v>
+        <v>2717</v>
       </c>
       <c r="D249" t="n">
-        <v>4028604</v>
+        <v>3857965</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1418</v>
+        <v>1383</v>
       </c>
       <c r="D250" t="n">
-        <v>2221079</v>
+        <v>2118730</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4526</v>
+        <v>4474</v>
       </c>
       <c r="D251" t="n">
-        <v>6801099</v>
+        <v>6571317</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>14145</v>
+        <v>13948</v>
       </c>
       <c r="D252" t="n">
-        <v>21995498</v>
+        <v>21068587</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6935</v>
+        <v>6823</v>
       </c>
       <c r="D253" t="n">
-        <v>10748598</v>
+        <v>10328869</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>8148</v>
+        <v>7990</v>
       </c>
       <c r="D255" t="n">
-        <v>11297202</v>
+        <v>10604599</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10871</v>
+        <v>10849</v>
       </c>
       <c r="D256" t="n">
-        <v>14267374</v>
+        <v>14242277</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>12738</v>
+        <v>12527</v>
       </c>
       <c r="D257" t="n">
-        <v>18787640</v>
+        <v>17892941</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>23024</v>
+        <v>22578</v>
       </c>
       <c r="D258" t="n">
-        <v>32435146</v>
+        <v>30549575</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13883</v>
+        <v>13798</v>
       </c>
       <c r="D259" t="n">
-        <v>20992089</v>
+        <v>20615045</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>19982</v>
+        <v>19775</v>
       </c>
       <c r="D261" t="n">
-        <v>25732457</v>
+        <v>25182791</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="D263" t="n">
-        <v>1278664</v>
+        <v>1264083</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>46182</v>
+        <v>46106</v>
       </c>
       <c r="D264" t="n">
-        <v>66667865</v>
+        <v>66436926</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>77716</v>
+        <v>76376</v>
       </c>
       <c r="D265" t="n">
-        <v>125344548</v>
+        <v>117382351</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>17123</v>
+        <v>16923</v>
       </c>
       <c r="D266" t="n">
-        <v>28873439</v>
+        <v>27946844</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>67141</v>
+        <v>65277</v>
       </c>
       <c r="D267" t="n">
-        <v>131432300</v>
+        <v>118540605</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7746</v>
+        <v>7630</v>
       </c>
       <c r="D268" t="n">
-        <v>11084650</v>
+        <v>10797372</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3315</v>
+        <v>3256</v>
       </c>
       <c r="D269" t="n">
-        <v>4860372</v>
+        <v>4744875</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>12865</v>
+        <v>12736</v>
       </c>
       <c r="D270" t="n">
-        <v>18765991</v>
+        <v>18238783</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>40146</v>
+        <v>39594</v>
       </c>
       <c r="D271" t="n">
-        <v>60384680</v>
+        <v>58050749</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>21104</v>
+        <v>20844</v>
       </c>
       <c r="D272" t="n">
-        <v>31480234</v>
+        <v>30547370</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>23926</v>
+        <v>23492</v>
       </c>
       <c r="D274" t="n">
-        <v>31167312</v>
+        <v>29684160</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>35200</v>
+        <v>35163</v>
       </c>
       <c r="D275" t="n">
-        <v>46395920</v>
+        <v>46329633</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>31926</v>
+        <v>31420</v>
       </c>
       <c r="D276" t="n">
-        <v>46165528</v>
+        <v>44204418</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>51926</v>
+        <v>50951</v>
       </c>
       <c r="D277" t="n">
-        <v>70585025</v>
+        <v>66722144</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>15226</v>
+        <v>15132</v>
       </c>
       <c r="D278" t="n">
-        <v>22062705</v>
+        <v>21688364</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>21828</v>
+        <v>21634</v>
       </c>
       <c r="D280" t="n">
-        <v>28937275</v>
+        <v>28269424</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -10998,10 +10998,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D281" t="n">
-        <v>197864</v>
+        <v>196364</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D282" t="n">
-        <v>1266051</v>
+        <v>1229814</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>60646</v>
+        <v>60546</v>
       </c>
       <c r="D283" t="n">
-        <v>87827678</v>
+        <v>87454994</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>89639</v>
+        <v>88237</v>
       </c>
       <c r="D284" t="n">
-        <v>142834073</v>
+        <v>135129001</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>20536</v>
+        <v>20312</v>
       </c>
       <c r="D285" t="n">
-        <v>34261618</v>
+        <v>33124356</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>82756</v>
+        <v>80724</v>
       </c>
       <c r="D286" t="n">
-        <v>168129903</v>
+        <v>154016830</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9676</v>
+        <v>9505</v>
       </c>
       <c r="D287" t="n">
-        <v>13984091</v>
+        <v>13517949</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3620</v>
+        <v>3559</v>
       </c>
       <c r="D288" t="n">
-        <v>5392143</v>
+        <v>5251975</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>15158</v>
+        <v>15006</v>
       </c>
       <c r="D289" t="n">
-        <v>22278067</v>
+        <v>21618383</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>46983</v>
+        <v>46389</v>
       </c>
       <c r="D290" t="n">
-        <v>72336584</v>
+        <v>69802882</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>23065</v>
+        <v>22785</v>
       </c>
       <c r="D291" t="n">
-        <v>34930385</v>
+        <v>33888637</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>29633</v>
+        <v>29222</v>
       </c>
       <c r="D293" t="n">
-        <v>37620917</v>
+        <v>36486526</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>38860</v>
+        <v>38822</v>
       </c>
       <c r="D294" t="n">
-        <v>51475325</v>
+        <v>51385715</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>38140</v>
+        <v>37630</v>
       </c>
       <c r="D295" t="n">
-        <v>55830881</v>
+        <v>53832276</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>53585</v>
+        <v>52595</v>
       </c>
       <c r="D296" t="n">
-        <v>69978106</v>
+        <v>66361356</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4485</v>
+        <v>4457</v>
       </c>
       <c r="D297" t="n">
-        <v>6603469</v>
+        <v>6492850</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8950</v>
+        <v>8857</v>
       </c>
       <c r="D299" t="n">
-        <v>11566585</v>
+        <v>11301769</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D301" t="n">
-        <v>784034</v>
+        <v>778744</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18625</v>
+        <v>18594</v>
       </c>
       <c r="D302" t="n">
-        <v>27068622</v>
+        <v>26979350</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>33777</v>
+        <v>33192</v>
       </c>
       <c r="D303" t="n">
-        <v>54477261</v>
+        <v>50809758</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8981</v>
+        <v>8859</v>
       </c>
       <c r="D304" t="n">
-        <v>16194085</v>
+        <v>15537851</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>32438</v>
+        <v>31507</v>
       </c>
       <c r="D305" t="n">
-        <v>65894946</v>
+        <v>59076399</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4558</v>
+        <v>4479</v>
       </c>
       <c r="D306" t="n">
-        <v>6508870</v>
+        <v>6268273</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2047</v>
+        <v>2002</v>
       </c>
       <c r="D307" t="n">
-        <v>3046398</v>
+        <v>2949056</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>6291</v>
+        <v>6221</v>
       </c>
       <c r="D308" t="n">
-        <v>9357927</v>
+        <v>9024839</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>21542</v>
+        <v>21244</v>
       </c>
       <c r="D309" t="n">
-        <v>33076349</v>
+        <v>31658142</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8213</v>
+        <v>8108</v>
       </c>
       <c r="D310" t="n">
-        <v>13012503</v>
+        <v>12527836</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10546</v>
+        <v>10385</v>
       </c>
       <c r="D311" t="n">
-        <v>14217963</v>
+        <v>13586247</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19557</v>
+        <v>19535</v>
       </c>
       <c r="D312" t="n">
-        <v>25743930</v>
+        <v>25694248</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>17497</v>
+        <v>17212</v>
       </c>
       <c r="D313" t="n">
-        <v>25646656</v>
+        <v>24465076</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>26557</v>
+        <v>26049</v>
       </c>
       <c r="D314" t="n">
-        <v>37160745</v>
+        <v>35066955</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6387</v>
+        <v>6346</v>
       </c>
       <c r="D315" t="n">
-        <v>9494963</v>
+        <v>9364410</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>21260</v>
+        <v>21044</v>
       </c>
       <c r="D317" t="n">
-        <v>29780649</v>
+        <v>29029838</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12404,10 +12404,10 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D318" t="n">
-        <v>150186</v>
+        <v>140186</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D319" t="n">
-        <v>499761</v>
+        <v>498261</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>54014</v>
+        <v>53897</v>
       </c>
       <c r="D320" t="n">
-        <v>79146837</v>
+        <v>78788472</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>96130</v>
+        <v>94483</v>
       </c>
       <c r="D321" t="n">
-        <v>156694797</v>
+        <v>147755017</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>38247</v>
+        <v>37670</v>
       </c>
       <c r="D322" t="n">
-        <v>68645795</v>
+        <v>65868079</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>84023</v>
+        <v>81928</v>
       </c>
       <c r="D323" t="n">
-        <v>184586551</v>
+        <v>169279883</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>10634</v>
+        <v>10464</v>
       </c>
       <c r="D324" t="n">
-        <v>16246637</v>
+        <v>15659052</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4115</v>
+        <v>4049</v>
       </c>
       <c r="D325" t="n">
-        <v>6280520</v>
+        <v>6120264</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>19329</v>
+        <v>19088</v>
       </c>
       <c r="D326" t="n">
-        <v>30824553</v>
+        <v>29669056</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>51075</v>
+        <v>50428</v>
       </c>
       <c r="D327" t="n">
-        <v>79284627</v>
+        <v>76766191</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>29621</v>
+        <v>29208</v>
       </c>
       <c r="D328" t="n">
-        <v>48099946</v>
+        <v>46318005</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>31658</v>
+        <v>31220</v>
       </c>
       <c r="D330" t="n">
-        <v>41994166</v>
+        <v>40582772</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>35791</v>
+        <v>35747</v>
       </c>
       <c r="D331" t="n">
-        <v>47498732</v>
+        <v>47412906</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>36207</v>
+        <v>35648</v>
       </c>
       <c r="D332" t="n">
-        <v>56309875</v>
+        <v>53956750</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>53591</v>
+        <v>52559</v>
       </c>
       <c r="D333" t="n">
-        <v>75066038</v>
+        <v>70853059</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-06/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12469</v>
+        <v>12524</v>
       </c>
       <c r="D2" t="n">
-        <v>17784023</v>
+        <v>17998731</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>25092</v>
+        <v>25409</v>
       </c>
       <c r="D4" t="n">
-        <v>33826731</v>
+        <v>34790128</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D5" t="n">
-        <v>540682</v>
+        <v>576863</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="D6" t="n">
-        <v>1786378</v>
+        <v>1822559</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62997</v>
+        <v>63195</v>
       </c>
       <c r="D7" t="n">
-        <v>92590262</v>
+        <v>93261287</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>93654</v>
+        <v>95565</v>
       </c>
       <c r="D8" t="n">
-        <v>146301463</v>
+        <v>156773251</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>37395</v>
+        <v>37977</v>
       </c>
       <c r="D9" t="n">
-        <v>62774013</v>
+        <v>65701973</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>96527</v>
+        <v>99036</v>
       </c>
       <c r="D10" t="n">
-        <v>191752094</v>
+        <v>208833861</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12403</v>
+        <v>12585</v>
       </c>
       <c r="D11" t="n">
-        <v>18105492</v>
+        <v>18615688</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4561</v>
+        <v>4637</v>
       </c>
       <c r="D12" t="n">
-        <v>6917827</v>
+        <v>7149154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17195</v>
+        <v>17383</v>
       </c>
       <c r="D13" t="n">
-        <v>25714612</v>
+        <v>26546086</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>57904</v>
+        <v>58651</v>
       </c>
       <c r="D14" t="n">
-        <v>87049487</v>
+        <v>89996648</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>28766</v>
+        <v>29199</v>
       </c>
       <c r="D15" t="n">
-        <v>44750726</v>
+        <v>46301152</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>54395</v>
+        <v>55261</v>
       </c>
       <c r="D17" t="n">
-        <v>73386330</v>
+        <v>76012653</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49048</v>
+        <v>49147</v>
       </c>
       <c r="D18" t="n">
-        <v>65447142</v>
+        <v>65608253</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>47366</v>
+        <v>48127</v>
       </c>
       <c r="D19" t="n">
-        <v>69714866</v>
+        <v>72345722</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>62424</v>
+        <v>64495</v>
       </c>
       <c r="D20" t="n">
-        <v>83234121</v>
+        <v>91436749</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4313</v>
+        <v>4350</v>
       </c>
       <c r="D21" t="n">
-        <v>6282007</v>
+        <v>6400321</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6833</v>
+        <v>6922</v>
       </c>
       <c r="D23" t="n">
-        <v>8890377</v>
+        <v>9130361</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D25" t="n">
-        <v>673570</v>
+        <v>676620</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>15027</v>
+        <v>15055</v>
       </c>
       <c r="D26" t="n">
-        <v>21636497</v>
+        <v>21682256</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>27999</v>
+        <v>28571</v>
       </c>
       <c r="D27" t="n">
-        <v>42412839</v>
+        <v>45478149</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3878</v>
+        <v>3932</v>
       </c>
       <c r="D28" t="n">
-        <v>6051218</v>
+        <v>6304994</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>27249</v>
+        <v>27946</v>
       </c>
       <c r="D29" t="n">
-        <v>49593426</v>
+        <v>53923964</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2230</v>
+        <v>2261</v>
       </c>
       <c r="D30" t="n">
-        <v>3090476</v>
+        <v>3180227</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1022</v>
+        <v>1039</v>
       </c>
       <c r="D31" t="n">
-        <v>1466578</v>
+        <v>1510000</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3623</v>
+        <v>3663</v>
       </c>
       <c r="D32" t="n">
-        <v>5132865</v>
+        <v>5296211</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11012</v>
+        <v>11179</v>
       </c>
       <c r="D33" t="n">
-        <v>16405532</v>
+        <v>17158698</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5670</v>
+        <v>5751</v>
       </c>
       <c r="D34" t="n">
-        <v>8409059</v>
+        <v>8696148</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8304</v>
+        <v>8473</v>
       </c>
       <c r="D36" t="n">
-        <v>10654576</v>
+        <v>11230861</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10721</v>
+        <v>10741</v>
       </c>
       <c r="D37" t="n">
-        <v>14210907</v>
+        <v>14249117</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>11790</v>
+        <v>11984</v>
       </c>
       <c r="D38" t="n">
-        <v>16192847</v>
+        <v>16806435</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>19057</v>
+        <v>19760</v>
       </c>
       <c r="D39" t="n">
-        <v>25329339</v>
+        <v>28018595</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3484</v>
+        <v>3511</v>
       </c>
       <c r="D40" t="n">
-        <v>4935304</v>
+        <v>5040869</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9245</v>
+        <v>9380</v>
       </c>
       <c r="D42" t="n">
-        <v>11702822</v>
+        <v>12050164</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D44" t="n">
-        <v>400252</v>
+        <v>401932</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>16460</v>
+        <v>16508</v>
       </c>
       <c r="D45" t="n">
-        <v>23719970</v>
+        <v>23816144</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30013</v>
+        <v>30670</v>
       </c>
       <c r="D46" t="n">
-        <v>46384521</v>
+        <v>50144813</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5406</v>
+        <v>5496</v>
       </c>
       <c r="D47" t="n">
-        <v>8572583</v>
+        <v>8961605</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>35093</v>
+        <v>36086</v>
       </c>
       <c r="D48" t="n">
-        <v>63627211</v>
+        <v>70087426</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3786</v>
+        <v>3853</v>
       </c>
       <c r="D49" t="n">
-        <v>5201540</v>
+        <v>5377618</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1342</v>
+        <v>1371</v>
       </c>
       <c r="D50" t="n">
-        <v>2020584</v>
+        <v>2095738</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5260</v>
+        <v>5307</v>
       </c>
       <c r="D51" t="n">
-        <v>7391691</v>
+        <v>7576285</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>16433</v>
+        <v>16667</v>
       </c>
       <c r="D52" t="n">
-        <v>24223364</v>
+        <v>25272649</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6989</v>
+        <v>7085</v>
       </c>
       <c r="D53" t="n">
-        <v>10239842</v>
+        <v>10547593</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
-        <v>12625</v>
+        <v>16250</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>9205</v>
+        <v>9411</v>
       </c>
       <c r="D55" t="n">
-        <v>12184010</v>
+        <v>12933439</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17711</v>
+        <v>17746</v>
       </c>
       <c r="D56" t="n">
-        <v>23759267</v>
+        <v>23807869</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>14318</v>
+        <v>14547</v>
       </c>
       <c r="D57" t="n">
-        <v>19660574</v>
+        <v>20445242</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>21203</v>
+        <v>21923</v>
       </c>
       <c r="D58" t="n">
-        <v>28746718</v>
+        <v>31760674</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3091</v>
+        <v>3117</v>
       </c>
       <c r="D59" t="n">
-        <v>4498014</v>
+        <v>4602283</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5944</v>
+        <v>6015</v>
       </c>
       <c r="D60" t="n">
-        <v>7929228</v>
+        <v>8118657</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D62" t="n">
-        <v>362742</v>
+        <v>372517</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14801</v>
+        <v>14838</v>
       </c>
       <c r="D63" t="n">
-        <v>21488992</v>
+        <v>21572895</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>22879</v>
+        <v>23381</v>
       </c>
       <c r="D64" t="n">
-        <v>34781489</v>
+        <v>37616007</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2814,10 +2814,10 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6206</v>
+        <v>6305</v>
       </c>
       <c r="D65" t="n">
-        <v>10524560</v>
+        <v>11058906</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>22108</v>
+        <v>22700</v>
       </c>
       <c r="D66" t="n">
-        <v>41171059</v>
+        <v>45006118</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2501</v>
+        <v>2538</v>
       </c>
       <c r="D67" t="n">
-        <v>3626270</v>
+        <v>3761837</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="D68" t="n">
-        <v>1375461</v>
+        <v>1425753</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3824</v>
+        <v>3885</v>
       </c>
       <c r="D69" t="n">
-        <v>5669409</v>
+        <v>5982313</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>10521</v>
+        <v>10700</v>
       </c>
       <c r="D70" t="n">
-        <v>15835415</v>
+        <v>16622410</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5760</v>
+        <v>5839</v>
       </c>
       <c r="D71" t="n">
-        <v>8573572</v>
+        <v>8843686</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3118,10 +3118,10 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6620</v>
+        <v>6769</v>
       </c>
       <c r="D73" t="n">
-        <v>9017325</v>
+        <v>9597370</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9150</v>
+        <v>9172</v>
       </c>
       <c r="D74" t="n">
-        <v>12039159</v>
+        <v>12077132</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>10557</v>
+        <v>10737</v>
       </c>
       <c r="D75" t="n">
-        <v>15524535</v>
+        <v>16244451</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>16977</v>
+        <v>17610</v>
       </c>
       <c r="D76" t="n">
-        <v>23191104</v>
+        <v>25689122</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2938</v>
+        <v>2957</v>
       </c>
       <c r="D77" t="n">
-        <v>4239456</v>
+        <v>4307495</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2338</v>
+        <v>2363</v>
       </c>
       <c r="D78" t="n">
-        <v>3244924</v>
+        <v>3324593</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5068</v>
+        <v>5082</v>
       </c>
       <c r="D80" t="n">
-        <v>7317424</v>
+        <v>7372563</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6403</v>
+        <v>6525</v>
       </c>
       <c r="D81" t="n">
-        <v>10339736</v>
+        <v>10959439</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1139</v>
+        <v>1148</v>
       </c>
       <c r="D82" t="n">
-        <v>1755246</v>
+        <v>1801026</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>8866</v>
+        <v>9065</v>
       </c>
       <c r="D83" t="n">
-        <v>17221315</v>
+        <v>18520270</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3536,10 +3536,10 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D84" t="n">
-        <v>742151</v>
+        <v>751151</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -3612,10 +3612,10 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1778</v>
+        <v>1793</v>
       </c>
       <c r="D86" t="n">
-        <v>2678772</v>
+        <v>2731477</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4506</v>
+        <v>4611</v>
       </c>
       <c r="D87" t="n">
-        <v>7678119</v>
+        <v>8301584</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2606</v>
+        <v>2634</v>
       </c>
       <c r="D88" t="n">
-        <v>3786518</v>
+        <v>3884620</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1443</v>
+        <v>1480</v>
       </c>
       <c r="D89" t="n">
-        <v>1921901</v>
+        <v>2037511</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1878</v>
+        <v>1884</v>
       </c>
       <c r="D90" t="n">
-        <v>2534255</v>
+        <v>2548988</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1978</v>
+        <v>2015</v>
       </c>
       <c r="D91" t="n">
-        <v>3129162</v>
+        <v>3267227</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3418</v>
+        <v>3535</v>
       </c>
       <c r="D92" t="n">
-        <v>4611033</v>
+        <v>5035351</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7064</v>
+        <v>7178</v>
       </c>
       <c r="D93" t="n">
-        <v>15545373</v>
+        <v>16197478</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3954,10 +3954,10 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>12007</v>
+        <v>12152</v>
       </c>
       <c r="D95" t="n">
-        <v>16323215</v>
+        <v>16798694</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1376</v>
+        <v>1383</v>
       </c>
       <c r="D97" t="n">
-        <v>1740596</v>
+        <v>1758125</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>31225</v>
+        <v>31319</v>
       </c>
       <c r="D98" t="n">
-        <v>45549102</v>
+        <v>45817771</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>51603</v>
+        <v>52531</v>
       </c>
       <c r="D99" t="n">
-        <v>78380925</v>
+        <v>83538583</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>11896</v>
+        <v>12062</v>
       </c>
       <c r="D100" t="n">
-        <v>18687431</v>
+        <v>19366731</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45332</v>
+        <v>46448</v>
       </c>
       <c r="D101" t="n">
-        <v>85099324</v>
+        <v>92800470</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>4903</v>
+        <v>4982</v>
       </c>
       <c r="D102" t="n">
-        <v>7008415</v>
+        <v>7242015</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4258,10 +4258,10 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>2152</v>
+        <v>2188</v>
       </c>
       <c r="D103" t="n">
-        <v>3150426</v>
+        <v>3242608</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6655</v>
+        <v>6710</v>
       </c>
       <c r="D104" t="n">
-        <v>9570690</v>
+        <v>9818041</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24097</v>
+        <v>24406</v>
       </c>
       <c r="D105" t="n">
-        <v>34729091</v>
+        <v>35778475</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11117</v>
+        <v>11297</v>
       </c>
       <c r="D106" t="n">
-        <v>16702661</v>
+        <v>17325636</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4448,10 +4448,10 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>13684</v>
+        <v>13963</v>
       </c>
       <c r="D108" t="n">
-        <v>18147059</v>
+        <v>19274293</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -4486,10 +4486,10 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>22120</v>
+        <v>22161</v>
       </c>
       <c r="D109" t="n">
-        <v>30057540</v>
+        <v>30143806</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -4524,10 +4524,10 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>19983</v>
+        <v>20327</v>
       </c>
       <c r="D110" t="n">
-        <v>27440438</v>
+        <v>28668156</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>38449</v>
+        <v>39841</v>
       </c>
       <c r="D111" t="n">
-        <v>50705112</v>
+        <v>55859500</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4630,10 +4630,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8711</v>
+        <v>8751</v>
       </c>
       <c r="D113" t="n">
-        <v>12487077</v>
+        <v>12599858</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4706,10 +4706,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3670</v>
+        <v>3704</v>
       </c>
       <c r="D115" t="n">
-        <v>5395197</v>
+        <v>5491045</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4820,10 +4820,10 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5634</v>
+        <v>5645</v>
       </c>
       <c r="D118" t="n">
-        <v>8287332</v>
+        <v>8319913</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -4858,10 +4858,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9728</v>
+        <v>9789</v>
       </c>
       <c r="D119" t="n">
-        <v>14168915</v>
+        <v>14361162</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4896,10 +4896,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3042</v>
+        <v>3086</v>
       </c>
       <c r="D120" t="n">
-        <v>4530437</v>
+        <v>4678192</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4934,10 +4934,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>10135</v>
+        <v>10263</v>
       </c>
       <c r="D121" t="n">
-        <v>16129351</v>
+        <v>16616688</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4972,10 +4972,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>964</v>
+        <v>975</v>
       </c>
       <c r="D122" t="n">
-        <v>1452914</v>
+        <v>1504340</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5048,10 +5048,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1389</v>
+        <v>1398</v>
       </c>
       <c r="D124" t="n">
-        <v>1948759</v>
+        <v>1969800</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3671</v>
+        <v>3694</v>
       </c>
       <c r="D125" t="n">
-        <v>5426340</v>
+        <v>5507084</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5124,10 +5124,10 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5418</v>
+        <v>5474</v>
       </c>
       <c r="D126" t="n">
-        <v>8271944</v>
+        <v>8511421</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -5162,10 +5162,10 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>2208</v>
+        <v>2223</v>
       </c>
       <c r="D127" t="n">
-        <v>2872169</v>
+        <v>2911492</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="D128" t="n">
-        <v>3393002</v>
+        <v>3407277</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -5238,10 +5238,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2269</v>
+        <v>2307</v>
       </c>
       <c r="D129" t="n">
-        <v>3638684</v>
+        <v>3811489</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5276,10 +5276,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3437</v>
+        <v>3462</v>
       </c>
       <c r="D130" t="n">
-        <v>4581785</v>
+        <v>4645611</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5344,10 +5344,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>4018</v>
+        <v>4027</v>
       </c>
       <c r="D132" t="n">
-        <v>7059767</v>
+        <v>7094051</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5382,10 +5382,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D133" t="n">
-        <v>351206</v>
+        <v>361206</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5420,10 +5420,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1851</v>
+        <v>1856</v>
       </c>
       <c r="D134" t="n">
-        <v>3788547</v>
+        <v>3815514</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5534,10 +5534,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>5107</v>
+        <v>5124</v>
       </c>
       <c r="D137" t="n">
-        <v>11527643</v>
+        <v>11637725</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5572,10 +5572,10 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>4345</v>
+        <v>4361</v>
       </c>
       <c r="D138" t="n">
-        <v>9027638</v>
+        <v>9098212</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="D139" t="n">
-        <v>3126683</v>
+        <v>3171257</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5648,10 +5648,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3179</v>
+        <v>3196</v>
       </c>
       <c r="D140" t="n">
-        <v>6759398</v>
+        <v>6833455</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5686,10 +5686,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D141" t="n">
-        <v>843118</v>
+        <v>862118</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D142" t="n">
-        <v>454338</v>
+        <v>466418</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5762,10 +5762,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D143" t="n">
-        <v>739204</v>
+        <v>752219</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5800,10 +5800,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="D144" t="n">
-        <v>3621304</v>
+        <v>3641824</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5838,10 +5838,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1961</v>
+        <v>1971</v>
       </c>
       <c r="D145" t="n">
-        <v>4198650</v>
+        <v>4246498</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -5876,10 +5876,10 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="D146" t="n">
-        <v>1306694</v>
+        <v>1322694</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -5914,10 +5914,10 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="D147" t="n">
-        <v>1343735</v>
+        <v>1351834</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -5952,10 +5952,10 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="D148" t="n">
-        <v>1527205</v>
+        <v>1568490</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -5990,10 +5990,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="D149" t="n">
-        <v>2526661</v>
+        <v>2543804</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6028,10 +6028,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3220</v>
+        <v>3245</v>
       </c>
       <c r="D150" t="n">
-        <v>4868629</v>
+        <v>4961806</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6104,10 +6104,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>9347</v>
+        <v>9472</v>
       </c>
       <c r="D152" t="n">
-        <v>12306386</v>
+        <v>12732176</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6180,10 +6180,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D154" t="n">
-        <v>676171</v>
+        <v>677671</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6218,10 +6218,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>26005</v>
+        <v>26089</v>
       </c>
       <c r="D155" t="n">
-        <v>37677380</v>
+        <v>37913048</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6256,10 +6256,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>50087</v>
+        <v>51052</v>
       </c>
       <c r="D156" t="n">
-        <v>73908734</v>
+        <v>78675855</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6294,10 +6294,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>19866</v>
+        <v>20195</v>
       </c>
       <c r="D157" t="n">
-        <v>31806786</v>
+        <v>33115728</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>44549</v>
+        <v>45664</v>
       </c>
       <c r="D158" t="n">
-        <v>86549822</v>
+        <v>94064721</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -6370,10 +6370,10 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>4945</v>
+        <v>5027</v>
       </c>
       <c r="D159" t="n">
-        <v>7111391</v>
+        <v>7353234</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -6408,10 +6408,10 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>2227</v>
+        <v>2263</v>
       </c>
       <c r="D160" t="n">
-        <v>3337188</v>
+        <v>3408888</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -6446,10 +6446,10 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6011</v>
+        <v>6101</v>
       </c>
       <c r="D161" t="n">
-        <v>9110722</v>
+        <v>9500195</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -6484,10 +6484,10 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>23869</v>
+        <v>24235</v>
       </c>
       <c r="D162" t="n">
-        <v>36005125</v>
+        <v>37508186</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -6522,10 +6522,10 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>11020</v>
+        <v>11167</v>
       </c>
       <c r="D163" t="n">
-        <v>16713517</v>
+        <v>17245295</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -6598,10 +6598,10 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>12249</v>
+        <v>12530</v>
       </c>
       <c r="D165" t="n">
-        <v>16509702</v>
+        <v>17583486</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -6636,10 +6636,10 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>22662</v>
+        <v>22697</v>
       </c>
       <c r="D166" t="n">
-        <v>30679872</v>
+        <v>30738720</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>19738</v>
+        <v>20089</v>
       </c>
       <c r="D167" t="n">
-        <v>29011426</v>
+        <v>30325689</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -6712,10 +6712,10 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>36775</v>
+        <v>38188</v>
       </c>
       <c r="D168" t="n">
-        <v>48433898</v>
+        <v>53688826</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -6750,10 +6750,10 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="D169" t="n">
-        <v>1504190</v>
+        <v>1547399</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>26699</v>
+        <v>27014</v>
       </c>
       <c r="D171" t="n">
-        <v>39315439</v>
+        <v>40595878</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -6864,10 +6864,10 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>536</v>
+        <v>549</v>
       </c>
       <c r="D172" t="n">
-        <v>1153540</v>
+        <v>1268617</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1123</v>
+        <v>1140</v>
       </c>
       <c r="D173" t="n">
-        <v>1807058</v>
+        <v>1867851</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -6940,10 +6940,10 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>70755</v>
+        <v>71008</v>
       </c>
       <c r="D174" t="n">
-        <v>107242416</v>
+        <v>108256913</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -6978,10 +6978,10 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>146012</v>
+        <v>148533</v>
       </c>
       <c r="D175" t="n">
-        <v>242781005</v>
+        <v>257583038</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>306178</v>
+        <v>312550</v>
       </c>
       <c r="D176" t="n">
-        <v>539050902</v>
+        <v>567974437</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -7054,10 +7054,10 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>131019</v>
+        <v>134058</v>
       </c>
       <c r="D177" t="n">
-        <v>286304148</v>
+        <v>310019376</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -7092,10 +7092,10 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>54753</v>
+        <v>55555</v>
       </c>
       <c r="D178" t="n">
-        <v>89314056</v>
+        <v>92228465</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>10499</v>
+        <v>10667</v>
       </c>
       <c r="D179" t="n">
-        <v>17047413</v>
+        <v>17617143</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -7168,10 +7168,10 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>25785</v>
+        <v>26124</v>
       </c>
       <c r="D180" t="n">
-        <v>42403397</v>
+        <v>44340782</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -7206,10 +7206,10 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>178051</v>
+        <v>180098</v>
       </c>
       <c r="D181" t="n">
-        <v>273732939</v>
+        <v>281218268</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>58795</v>
+        <v>59695</v>
       </c>
       <c r="D182" t="n">
-        <v>102710231</v>
+        <v>106574635</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>52245</v>
+        <v>53197</v>
       </c>
       <c r="D184" t="n">
-        <v>70059299</v>
+        <v>73478292</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -7358,10 +7358,10 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>60678</v>
+        <v>60789</v>
       </c>
       <c r="D185" t="n">
-        <v>81950341</v>
+        <v>82190767</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
@@ -7396,10 +7396,10 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>110000</v>
+        <v>111523</v>
       </c>
       <c r="D186" t="n">
-        <v>167961131</v>
+        <v>173613149</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -7434,10 +7434,10 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>77361</v>
+        <v>79540</v>
       </c>
       <c r="D187" t="n">
-        <v>117031916</v>
+        <v>128098156</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -7472,10 +7472,10 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>5437</v>
+        <v>5446</v>
       </c>
       <c r="D188" t="n">
-        <v>7308038</v>
+        <v>7340225</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -7548,10 +7548,10 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>4512</v>
+        <v>4528</v>
       </c>
       <c r="D190" t="n">
-        <v>6125418</v>
+        <v>6179896</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -7662,10 +7662,10 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7770</v>
+        <v>7776</v>
       </c>
       <c r="D193" t="n">
-        <v>11357444</v>
+        <v>11380192</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>14816</v>
+        <v>14862</v>
       </c>
       <c r="D194" t="n">
-        <v>20771766</v>
+        <v>20901143</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
@@ -7738,10 +7738,10 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="D195" t="n">
-        <v>3220457</v>
+        <v>3242677</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
@@ -7776,10 +7776,10 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>10418</v>
+        <v>10514</v>
       </c>
       <c r="D196" t="n">
-        <v>15636120</v>
+        <v>16005062</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
@@ -7814,10 +7814,10 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1212</v>
+        <v>1217</v>
       </c>
       <c r="D197" t="n">
-        <v>1724616</v>
+        <v>1743845</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -7852,10 +7852,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D198" t="n">
-        <v>626568</v>
+        <v>632568</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -7890,10 +7890,10 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1829</v>
+        <v>1842</v>
       </c>
       <c r="D199" t="n">
-        <v>2599804</v>
+        <v>2648941</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -7928,10 +7928,10 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>4895</v>
+        <v>4913</v>
       </c>
       <c r="D200" t="n">
-        <v>7038345</v>
+        <v>7085129</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -7966,10 +7966,10 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3267</v>
+        <v>3289</v>
       </c>
       <c r="D201" t="n">
-        <v>5063808</v>
+        <v>5163311</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -8004,10 +8004,10 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4136</v>
+        <v>4152</v>
       </c>
       <c r="D202" t="n">
-        <v>5381260</v>
+        <v>5407636</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -8042,10 +8042,10 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>5292</v>
+        <v>5293</v>
       </c>
       <c r="D203" t="n">
-        <v>7480995</v>
+        <v>7482885</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -8080,10 +8080,10 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3893</v>
+        <v>3925</v>
       </c>
       <c r="D204" t="n">
-        <v>5663812</v>
+        <v>5757036</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -8118,10 +8118,10 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5438</v>
+        <v>5448</v>
       </c>
       <c r="D205" t="n">
-        <v>6961185</v>
+        <v>6974840</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -8156,10 +8156,10 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2245</v>
+        <v>2267</v>
       </c>
       <c r="D206" t="n">
-        <v>3024593</v>
+        <v>3100777</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
@@ -8194,10 +8194,10 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2402</v>
+        <v>2433</v>
       </c>
       <c r="D207" t="n">
-        <v>3440669</v>
+        <v>3568309</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3331</v>
+        <v>3350</v>
       </c>
       <c r="D210" t="n">
-        <v>5012742</v>
+        <v>5089035</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -8346,10 +8346,10 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6536</v>
+        <v>6705</v>
       </c>
       <c r="D211" t="n">
-        <v>10333627</v>
+        <v>11272407</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -8384,10 +8384,10 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2603</v>
+        <v>2646</v>
       </c>
       <c r="D212" t="n">
-        <v>4013945</v>
+        <v>4208861</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>5099</v>
+        <v>5215</v>
       </c>
       <c r="D213" t="n">
-        <v>8635708</v>
+        <v>9287520</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -8460,10 +8460,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="D214" t="n">
-        <v>1084427</v>
+        <v>1128015</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -8498,10 +8498,10 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D215" t="n">
-        <v>405470</v>
+        <v>432515</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -8536,10 +8536,10 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>844</v>
+        <v>853</v>
       </c>
       <c r="D216" t="n">
-        <v>1302621</v>
+        <v>1333738</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -8574,10 +8574,10 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3013</v>
+        <v>3057</v>
       </c>
       <c r="D217" t="n">
-        <v>4544217</v>
+        <v>4732778</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -8612,10 +8612,10 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3416</v>
+        <v>3489</v>
       </c>
       <c r="D218" t="n">
-        <v>5364781</v>
+        <v>5683039</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -8650,10 +8650,10 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1654</v>
+        <v>1678</v>
       </c>
       <c r="D219" t="n">
-        <v>2244710</v>
+        <v>2306159</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
@@ -8688,10 +8688,10 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="D220" t="n">
-        <v>2831413</v>
+        <v>2861803</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
@@ -8726,10 +8726,10 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1663</v>
+        <v>1702</v>
       </c>
       <c r="D221" t="n">
-        <v>2660342</v>
+        <v>2834896</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
@@ -8764,10 +8764,10 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3387</v>
+        <v>3493</v>
       </c>
       <c r="D222" t="n">
-        <v>4804224</v>
+        <v>5185007</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
@@ -8802,10 +8802,10 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D223" t="n">
-        <v>1953</v>
+        <v>2488</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>5988</v>
+        <v>6017</v>
       </c>
       <c r="D224" t="n">
-        <v>13063556</v>
+        <v>13219912</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -8870,10 +8870,10 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="D225" t="n">
-        <v>2381749</v>
+        <v>2399072</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -8908,10 +8908,10 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D226" t="n">
-        <v>117143</v>
+        <v>127466</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3607</v>
+        <v>3628</v>
       </c>
       <c r="D227" t="n">
-        <v>8335168</v>
+        <v>8513451</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -8984,10 +8984,10 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>16333</v>
+        <v>16436</v>
       </c>
       <c r="D228" t="n">
-        <v>36040929</v>
+        <v>36793105</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -9022,10 +9022,10 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3212</v>
+        <v>3239</v>
       </c>
       <c r="D229" t="n">
-        <v>7680965</v>
+        <v>7889585</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -9060,10 +9060,10 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1818</v>
+        <v>1835</v>
       </c>
       <c r="D230" t="n">
-        <v>4063290</v>
+        <v>4134633</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
@@ -9136,10 +9136,10 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D232" t="n">
-        <v>106014</v>
+        <v>109014</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -9212,10 +9212,10 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D234" t="n">
-        <v>1172007</v>
+        <v>1179707</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -9250,10 +9250,10 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="D235" t="n">
-        <v>1485520</v>
+        <v>1526020</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
@@ -9288,10 +9288,10 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D236" t="n">
-        <v>974030</v>
+        <v>993430</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -9326,10 +9326,10 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D237" t="n">
-        <v>565331</v>
+        <v>575331</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -9364,10 +9364,10 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D238" t="n">
-        <v>704383</v>
+        <v>729578</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
@@ -9402,10 +9402,10 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="D239" t="n">
-        <v>1185988</v>
+        <v>1220582</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -9440,10 +9440,10 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3549</v>
+        <v>3573</v>
       </c>
       <c r="D240" t="n">
-        <v>5126789</v>
+        <v>5252611</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
@@ -9516,10 +9516,10 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6458</v>
+        <v>6550</v>
       </c>
       <c r="D242" t="n">
-        <v>8446432</v>
+        <v>8703726</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
@@ -9592,10 +9592,10 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D244" t="n">
-        <v>391809</v>
+        <v>395334</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>15974</v>
+        <v>16027</v>
       </c>
       <c r="D245" t="n">
-        <v>23249873</v>
+        <v>23410198</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -9668,10 +9668,10 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>31393</v>
+        <v>32058</v>
       </c>
       <c r="D246" t="n">
-        <v>47408925</v>
+        <v>50931742</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -9706,10 +9706,10 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6591</v>
+        <v>6679</v>
       </c>
       <c r="D247" t="n">
-        <v>10631068</v>
+        <v>10999453</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
@@ -9744,10 +9744,10 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>29724</v>
+        <v>30517</v>
       </c>
       <c r="D248" t="n">
-        <v>56474280</v>
+        <v>61758731</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -9782,10 +9782,10 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>2717</v>
+        <v>2755</v>
       </c>
       <c r="D249" t="n">
-        <v>3857965</v>
+        <v>3979453</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>1383</v>
+        <v>1411</v>
       </c>
       <c r="D250" t="n">
-        <v>2118730</v>
+        <v>2183102</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
@@ -9858,10 +9858,10 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4474</v>
+        <v>4531</v>
       </c>
       <c r="D251" t="n">
-        <v>6571317</v>
+        <v>6860486</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
@@ -9896,10 +9896,10 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>13948</v>
+        <v>14171</v>
       </c>
       <c r="D252" t="n">
-        <v>21068587</v>
+        <v>21997197</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
@@ -9934,10 +9934,10 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6823</v>
+        <v>6935</v>
       </c>
       <c r="D253" t="n">
-        <v>10328869</v>
+        <v>10711926</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
@@ -10010,10 +10010,10 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>7990</v>
+        <v>8170</v>
       </c>
       <c r="D255" t="n">
-        <v>10604599</v>
+        <v>11256503</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -10048,10 +10048,10 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>10849</v>
+        <v>10864</v>
       </c>
       <c r="D256" t="n">
-        <v>14242277</v>
+        <v>14261985</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -10086,10 +10086,10 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>12527</v>
+        <v>12771</v>
       </c>
       <c r="D257" t="n">
-        <v>17892941</v>
+        <v>18745541</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -10124,10 +10124,10 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>22578</v>
+        <v>23442</v>
       </c>
       <c r="D258" t="n">
-        <v>30549575</v>
+        <v>34035356</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -10162,10 +10162,10 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>13798</v>
+        <v>13921</v>
       </c>
       <c r="D259" t="n">
-        <v>20615045</v>
+        <v>21116535</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
@@ -10238,10 +10238,10 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>19775</v>
+        <v>20056</v>
       </c>
       <c r="D261" t="n">
-        <v>25182791</v>
+        <v>25881446</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -10314,10 +10314,10 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D263" t="n">
-        <v>1264083</v>
+        <v>1306243</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
@@ -10352,10 +10352,10 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>46106</v>
+        <v>46239</v>
       </c>
       <c r="D264" t="n">
-        <v>66436926</v>
+        <v>66816145</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
@@ -10390,10 +10390,10 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>76376</v>
+        <v>77982</v>
       </c>
       <c r="D265" t="n">
-        <v>117382351</v>
+        <v>125916841</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
@@ -10428,10 +10428,10 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>16923</v>
+        <v>17191</v>
       </c>
       <c r="D266" t="n">
-        <v>27946844</v>
+        <v>29260730</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -10466,10 +10466,10 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>65277</v>
+        <v>66966</v>
       </c>
       <c r="D267" t="n">
-        <v>118540605</v>
+        <v>129188570</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
@@ -10504,10 +10504,10 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7630</v>
+        <v>7763</v>
       </c>
       <c r="D268" t="n">
-        <v>10797372</v>
+        <v>11177173</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -10542,10 +10542,10 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3256</v>
+        <v>3311</v>
       </c>
       <c r="D269" t="n">
-        <v>4744875</v>
+        <v>4863847</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -10580,10 +10580,10 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>12736</v>
+        <v>12889</v>
       </c>
       <c r="D270" t="n">
-        <v>18238783</v>
+        <v>19003106</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -10618,10 +10618,10 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>39594</v>
+        <v>40158</v>
       </c>
       <c r="D271" t="n">
-        <v>58050749</v>
+        <v>60276981</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -10656,10 +10656,10 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>20844</v>
+        <v>21167</v>
       </c>
       <c r="D272" t="n">
-        <v>30547370</v>
+        <v>31517089</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
@@ -10732,10 +10732,10 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>23492</v>
+        <v>23980</v>
       </c>
       <c r="D274" t="n">
-        <v>29684160</v>
+        <v>31118475</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -10770,10 +10770,10 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>35163</v>
+        <v>35226</v>
       </c>
       <c r="D275" t="n">
-        <v>46329633</v>
+        <v>46454336</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
@@ -10808,10 +10808,10 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>31420</v>
+        <v>31960</v>
       </c>
       <c r="D276" t="n">
-        <v>44204418</v>
+        <v>46122780</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
@@ -10846,10 +10846,10 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>50951</v>
+        <v>52701</v>
       </c>
       <c r="D277" t="n">
-        <v>66722144</v>
+        <v>73265341</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
@@ -10884,10 +10884,10 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>15132</v>
+        <v>15270</v>
       </c>
       <c r="D278" t="n">
-        <v>21688364</v>
+        <v>22199280</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>21634</v>
+        <v>21880</v>
       </c>
       <c r="D280" t="n">
-        <v>28269424</v>
+        <v>28947219</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -10998,10 +10998,10 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D281" t="n">
-        <v>196364</v>
+        <v>202278</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -11036,10 +11036,10 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="D282" t="n">
-        <v>1229814</v>
+        <v>1267064</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
@@ -11074,10 +11074,10 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>60546</v>
+        <v>60725</v>
       </c>
       <c r="D283" t="n">
-        <v>87454994</v>
+        <v>87946826</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
@@ -11112,10 +11112,10 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>88237</v>
+        <v>90023</v>
       </c>
       <c r="D284" t="n">
-        <v>135129001</v>
+        <v>144095246</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -11150,10 +11150,10 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>20312</v>
+        <v>20623</v>
       </c>
       <c r="D285" t="n">
-        <v>33124356</v>
+        <v>34634593</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
@@ -11188,10 +11188,10 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>80724</v>
+        <v>82619</v>
       </c>
       <c r="D286" t="n">
-        <v>154016830</v>
+        <v>166184349</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
@@ -11226,10 +11226,10 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>9505</v>
+        <v>9669</v>
       </c>
       <c r="D287" t="n">
-        <v>13517949</v>
+        <v>13949998</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
@@ -11264,10 +11264,10 @@
         </is>
       </c>
       <c r="C288" t="n">
-        <v>3559</v>
+        <v>3621</v>
       </c>
       <c r="D288" t="n">
-        <v>5251975</v>
+        <v>5385247</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -11302,10 +11302,10 @@
         </is>
       </c>
       <c r="C289" t="n">
-        <v>15006</v>
+        <v>15171</v>
       </c>
       <c r="D289" t="n">
-        <v>21618383</v>
+        <v>22248723</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -11340,10 +11340,10 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>46389</v>
+        <v>46992</v>
       </c>
       <c r="D290" t="n">
-        <v>69802882</v>
+        <v>72113402</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -11378,10 +11378,10 @@
         </is>
       </c>
       <c r="C291" t="n">
-        <v>22785</v>
+        <v>23106</v>
       </c>
       <c r="D291" t="n">
-        <v>33888637</v>
+        <v>34911416</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -11416,10 +11416,10 @@
         </is>
       </c>
       <c r="C292" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D292" t="n">
-        <v>24696</v>
+        <v>25774</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>29222</v>
+        <v>29799</v>
       </c>
       <c r="D293" t="n">
-        <v>36486526</v>
+        <v>38103576</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
@@ -11492,10 +11492,10 @@
         </is>
       </c>
       <c r="C294" t="n">
-        <v>38822</v>
+        <v>38870</v>
       </c>
       <c r="D294" t="n">
-        <v>51385715</v>
+        <v>51479261</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
@@ -11530,10 +11530,10 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>37630</v>
+        <v>38281</v>
       </c>
       <c r="D295" t="n">
-        <v>53832276</v>
+        <v>56142920</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -11568,10 +11568,10 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>52595</v>
+        <v>54218</v>
       </c>
       <c r="D296" t="n">
-        <v>66361356</v>
+        <v>71678797</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
@@ -11606,10 +11606,10 @@
         </is>
       </c>
       <c r="C297" t="n">
-        <v>4457</v>
+        <v>4498</v>
       </c>
       <c r="D297" t="n">
-        <v>6492850</v>
+        <v>6607246</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -11644,10 +11644,10 @@
         </is>
       </c>
       <c r="C298" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D298" t="n">
-        <v>144163</v>
+        <v>145548</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -11682,10 +11682,10 @@
         </is>
       </c>
       <c r="C299" t="n">
-        <v>8857</v>
+        <v>8977</v>
       </c>
       <c r="D299" t="n">
-        <v>11301769</v>
+        <v>11634123</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -11758,10 +11758,10 @@
         </is>
       </c>
       <c r="C301" t="n">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="D301" t="n">
-        <v>778744</v>
+        <v>797144</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -11796,10 +11796,10 @@
         </is>
       </c>
       <c r="C302" t="n">
-        <v>18594</v>
+        <v>18649</v>
       </c>
       <c r="D302" t="n">
-        <v>26979350</v>
+        <v>27135272</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
@@ -11834,10 +11834,10 @@
         </is>
       </c>
       <c r="C303" t="n">
-        <v>33192</v>
+        <v>33899</v>
       </c>
       <c r="D303" t="n">
-        <v>50809758</v>
+        <v>54785750</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
@@ -11872,10 +11872,10 @@
         </is>
       </c>
       <c r="C304" t="n">
-        <v>8859</v>
+        <v>9024</v>
       </c>
       <c r="D304" t="n">
-        <v>15537851</v>
+        <v>16380751</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -11910,10 +11910,10 @@
         </is>
       </c>
       <c r="C305" t="n">
-        <v>31507</v>
+        <v>32404</v>
       </c>
       <c r="D305" t="n">
-        <v>59076399</v>
+        <v>65369650</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
@@ -11948,10 +11948,10 @@
         </is>
       </c>
       <c r="C306" t="n">
-        <v>4479</v>
+        <v>4562</v>
       </c>
       <c r="D306" t="n">
-        <v>6268273</v>
+        <v>6471882</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -11986,10 +11986,10 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>2002</v>
+        <v>2034</v>
       </c>
       <c r="D307" t="n">
-        <v>2949056</v>
+        <v>3027485</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -12024,10 +12024,10 @@
         </is>
       </c>
       <c r="C308" t="n">
-        <v>6221</v>
+        <v>6274</v>
       </c>
       <c r="D308" t="n">
-        <v>9024839</v>
+        <v>9280116</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
@@ -12062,10 +12062,10 @@
         </is>
       </c>
       <c r="C309" t="n">
-        <v>21244</v>
+        <v>21571</v>
       </c>
       <c r="D309" t="n">
-        <v>31658142</v>
+        <v>33028659</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
@@ -12100,10 +12100,10 @@
         </is>
       </c>
       <c r="C310" t="n">
-        <v>8108</v>
+        <v>8218</v>
       </c>
       <c r="D310" t="n">
-        <v>12527836</v>
+        <v>12969709</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -12138,10 +12138,10 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>10385</v>
+        <v>10631</v>
       </c>
       <c r="D311" t="n">
-        <v>13586247</v>
+        <v>14555605</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
@@ -12176,10 +12176,10 @@
         </is>
       </c>
       <c r="C312" t="n">
-        <v>19535</v>
+        <v>19566</v>
       </c>
       <c r="D312" t="n">
-        <v>25694248</v>
+        <v>25750197</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -12214,10 +12214,10 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>17212</v>
+        <v>17504</v>
       </c>
       <c r="D313" t="n">
-        <v>24465076</v>
+        <v>25593398</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
@@ -12252,10 +12252,10 @@
         </is>
       </c>
       <c r="C314" t="n">
-        <v>26049</v>
+        <v>26896</v>
       </c>
       <c r="D314" t="n">
-        <v>35066955</v>
+        <v>38694459</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -12290,10 +12290,10 @@
         </is>
       </c>
       <c r="C315" t="n">
-        <v>6346</v>
+        <v>6415</v>
       </c>
       <c r="D315" t="n">
-        <v>9364410</v>
+        <v>9567681</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -12366,10 +12366,10 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>21044</v>
+        <v>21310</v>
       </c>
       <c r="D317" t="n">
-        <v>29029838</v>
+        <v>29760504</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -12442,10 +12442,10 @@
         </is>
       </c>
       <c r="C319" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D319" t="n">
-        <v>498261</v>
+        <v>499981</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
@@ -12480,10 +12480,10 @@
         </is>
       </c>
       <c r="C320" t="n">
-        <v>53897</v>
+        <v>54129</v>
       </c>
       <c r="D320" t="n">
-        <v>78788472</v>
+        <v>79508273</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
@@ -12518,10 +12518,10 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>94483</v>
+        <v>96485</v>
       </c>
       <c r="D321" t="n">
-        <v>147755017</v>
+        <v>157418107</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
@@ -12556,10 +12556,10 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>37670</v>
+        <v>38328</v>
       </c>
       <c r="D322" t="n">
-        <v>65868079</v>
+        <v>68804671</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -12594,10 +12594,10 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>81928</v>
+        <v>83968</v>
       </c>
       <c r="D323" t="n">
-        <v>169279883</v>
+        <v>182977801</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
@@ -12632,10 +12632,10 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>10464</v>
+        <v>10634</v>
       </c>
       <c r="D324" t="n">
-        <v>15659052</v>
+        <v>16141390</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
@@ -12670,10 +12670,10 @@
         </is>
       </c>
       <c r="C325" t="n">
-        <v>4049</v>
+        <v>4101</v>
       </c>
       <c r="D325" t="n">
-        <v>6120264</v>
+        <v>6257727</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -12708,10 +12708,10 @@
         </is>
       </c>
       <c r="C326" t="n">
-        <v>19088</v>
+        <v>19338</v>
       </c>
       <c r="D326" t="n">
-        <v>29669056</v>
+        <v>30825671</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
@@ -12746,10 +12746,10 @@
         </is>
       </c>
       <c r="C327" t="n">
-        <v>50428</v>
+        <v>51111</v>
       </c>
       <c r="D327" t="n">
-        <v>76766191</v>
+        <v>79391939</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
@@ -12784,10 +12784,10 @@
         </is>
       </c>
       <c r="C328" t="n">
-        <v>29208</v>
+        <v>29648</v>
       </c>
       <c r="D328" t="n">
-        <v>46318005</v>
+        <v>47842691</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -12860,10 +12860,10 @@
         </is>
       </c>
       <c r="C330" t="n">
-        <v>31220</v>
+        <v>31880</v>
       </c>
       <c r="D330" t="n">
-        <v>40582772</v>
+        <v>42344893</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
@@ -12898,10 +12898,10 @@
         </is>
       </c>
       <c r="C331" t="n">
-        <v>35747</v>
+        <v>35805</v>
       </c>
       <c r="D331" t="n">
-        <v>47412906</v>
+        <v>47523525</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
@@ -12936,10 +12936,10 @@
         </is>
       </c>
       <c r="C332" t="n">
-        <v>35648</v>
+        <v>36301</v>
       </c>
       <c r="D332" t="n">
-        <v>53956750</v>
+        <v>56333263</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
@@ -12974,10 +12974,10 @@
         </is>
       </c>
       <c r="C333" t="n">
-        <v>52559</v>
+        <v>54350</v>
       </c>
       <c r="D333" t="n">
-        <v>70853059</v>
+        <v>77361544</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
